--- a/data/trans_bre/P25A_2_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_2_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,35 +657,55 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>85,88%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>64,12%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -673,12 +725,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,95</t>
+          <t>-1,31; 2,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,54</t>
+          <t>0,0; 3,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +740,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,42; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -702,6 +754,26 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -725,37 +797,57 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,55</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>279,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
         </is>
       </c>
     </row>
@@ -768,32 +860,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 0,0</t>
+          <t>-3,99; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,97</t>
+          <t>0,32; 3,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,05; 0,0</t>
+          <t>-4,34; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 6,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 2,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -802,6 +894,26 @@
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -825,7 +937,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -835,27 +947,47 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,52</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>22,91%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-29,21%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>195,25%</t>
+          <t>14,04%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-30,65%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>81,3%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-39,33%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>134,45%</t>
         </is>
       </c>
     </row>
@@ -873,27 +1005,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,51</t>
+          <t>-0,93; 1,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,46</t>
+          <t>-1,2; 0,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 65,55</t>
+          <t>-1,11; 3,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; 1,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 5,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +1035,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 1134,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-74,06; 984,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 279,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-59,35; 1508,28</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-28,06%</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,06%</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>189,67%</t>
+          <t>-28,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,09%</t>
+          <t>-12,89%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>197,74%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-32,6%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>40,71%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>49,63%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,75</t>
+          <t>-3,1; 1,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,44</t>
+          <t>-1,9; 1,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,89</t>
+          <t>-0,1; 2,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 10,8</t>
+          <t>-3,65; 1,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,08; 236,16</t>
+          <t>-2,14; 4,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,15; 365,54</t>
+          <t>-1,9; 4,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,52; 177,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-86,61; 250,95</t>
+          <t>-86,9; 382,44</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-62,33; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-88,09; 228,8</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-48,3; 307,2</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-51,98; 323,25</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-36,74%</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-38,92%</t>
+          <t>-39,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-39,42%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,3%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-58,86%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,58</t>
+          <t>-4,47; 1,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,07</t>
+          <t>-2,35; 3,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,27</t>
+          <t>-3,96; 1,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 15,31</t>
+          <t>-4,35; 4,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-87,64; 161,27</t>
+          <t>-5,45; 6,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-73,74; 314,23</t>
+          <t>-8,99; 0,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-84,01; 115,53</t>
+          <t>-89,63; 148,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 207,8</t>
+          <t>-73,79; 351,39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-84,55; 122,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-57,52; 153,87</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-46,58; 107,19</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-90,7; 13,01</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>121,49%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>50,85%</t>
+          <t>30,81%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>142,74%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>55,08%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20,8%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 5,83</t>
+          <t>-7,65; 5,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 5,82</t>
+          <t>-3,83; 6,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 8,95</t>
+          <t>0,38; 12,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 12,72</t>
+          <t>-2,87; 6,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,33; 229,48</t>
+          <t>-5,92; 5,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 158,38</t>
+          <t>-5,29; 7,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 600,73</t>
+          <t>-71,9; 205,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,08; 485,69</t>
+          <t>-43,94; 183,57</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-22,49; 623,24</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-63,25; 444,54</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-60,92; 126,6</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-57,39; 231,99</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>102,75%</t>
+          <t>-8,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>40,38%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>115,55%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20,73%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14,0%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,16</t>
+          <t>-1,76; 0,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,66</t>
+          <t>-0,44; 1,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,25</t>
+          <t>0,29; 2,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 7,96</t>
+          <t>-0,84; 1,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-52,61; 83,99</t>
+          <t>-1,31; 2,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 143,3</t>
+          <t>-1,18; 2,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 306,8</t>
+          <t>-59,18; 67,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 102,81</t>
+          <t>-22,38; 147,01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 343,85</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-33,62; 124,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-28,94; 81,75</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-29,84; 90,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
